--- a/com.yrtech.SurveyAPI/Excel/ShopAnswerInfo.xlsx
+++ b/com.yrtech.SurveyAPI/Excel/ShopAnswerInfo.xlsx
@@ -93,47 +93,47 @@
   </si>
   <si>
     <t>经销商名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>题目代码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>题目序号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>得分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>得分备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>失分说明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>通过复审</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>复审意见</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>审核得分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>检查点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>经销商代码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -143,18 +143,10 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -164,15 +156,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -222,23 +216,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -516,13 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO2"/>
+  <dimension ref="A1:BO1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="3" customWidth="1"/>
@@ -538,38 +526,38 @@
     <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="L1" s="3"/>
@@ -629,20 +617,16 @@
       <c r="BN1" s="3"/>
       <c r="BO1" s="3"/>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:K1162">
       <formula1>"1,0"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -755,7 +739,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/com.yrtech.SurveyAPI/Excel/ShopAnswerInfo.xlsx
+++ b/com.yrtech.SurveyAPI/Excel/ShopAnswerInfo.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\com.yrtech.SurveyAPI\com.yrtech.SurveyAPI\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23835" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="ShopAnswer" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
     <definedName name="List_Model">Sheet1!$C$3:$C$7</definedName>
     <definedName name="List_Type">Sheet1!$B$3:$B$17</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>活动类型</t>
   </si>
@@ -133,17 +128,41 @@
   </si>
   <si>
     <t>经销商代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失分说明编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充失分说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉理由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈意见</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -505,12 +524,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BQ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="3" customWidth="1"/>
@@ -518,15 +539,19 @@
     <col min="4" max="4" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11" style="3" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="8" width="16.7109375" style="3" customWidth="1"/>
+    <col min="9" max="10" width="33.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11" style="3" customWidth="1"/>
+    <col min="13" max="13" width="36.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="36.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="36.5703125" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -549,23 +574,35 @@
         <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="N1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
@@ -616,31 +653,28 @@
       <c r="BM1" s="3"/>
       <c r="BN1" s="3"/>
       <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:K1162">
-      <formula1>"1,0"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -656,7 +690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -664,7 +698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -672,7 +706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -680,7 +714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -688,52 +722,52 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3">
       <c r="B11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3">
       <c r="B15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3">
       <c r="B16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>21</v>
       </c>
